--- a/Cuentas.xlsx
+++ b/Cuentas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SlowD\Documents\GitHub\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0920383E-6F87-48E7-8ED2-128284954C97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B52154-3ED5-4B27-AA0F-3DA983FDDADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{577ED198-B4CE-4ABD-BF00-18104DE91D49}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11505" xr2:uid="{577ED198-B4CE-4ABD-BF00-18104DE91D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;L&quot;* #,##0.00_-;\-&quot;L&quot;* #,##0.00_-;_-&quot;L&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,19 +149,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,7 +482,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C6" s="3">
         <f>O2</f>
@@ -625,15 +625,15 @@
       </c>
       <c r="D6" s="3">
         <f>B6-C6</f>
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E6" s="3">
         <f>(D6*0.6)+E4</f>
-        <v>78.5</v>
+        <v>60.5</v>
       </c>
       <c r="F6" s="3">
         <f>D6*0.4</f>
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
